--- a/public/qa/TemplateSerialNumberKBI.xlsx
+++ b/public/qa/TemplateSerialNumberKBI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khamdan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.109.52.1\xampp\htdocs\miraidev_online\public\qa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{632C6378-DD0D-4E65-A67C-AF68B9F2D237}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43030E59-5680-45FE-BAEF-FF05501E33E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{70EBBEE0-7F6F-46F1-8C99-2218885C4860}"/>
   </bookViews>
@@ -117,12 +117,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,19 +445,19 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -466,7 +471,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>50646</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -481,5 +486,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>